--- a/Results/VICINITY Core Ontology/Candidate CQs/P2_LLama_VICINITYCore.xlsx
+++ b/Results/VICINITY Core Ontology/Candidate CQs/P2_LLama_VICINITYCore.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psralha4\Desktop\F_Generative AI Results\Repository Files\Results\VICINITY Core Ontology\Candidate CQs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psralha4\Documents\RETROFIT-CQs\RETROFIT-CQs\Results\VICINITY Core Ontology\Candidate CQs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C1CCB5-E4AC-4EFA-89E6-BC5BA9CA1097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8D08A0-0A96-4621-8C95-DF321E3EB576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1503,30 +1503,9 @@
     <t>Could you provide a brief explanation of why this triple might be important or useful in a particular context</t>
   </si>
   <si>
-    <t>Describe a scenario where a device's serial number is essential for troubleshooting purposes.
-8. How can a device's serial number be used to verify its compatibility with certain software or hardware</t>
-  </si>
-  <si>
-    <t>Describe a situation where a device's name may need to be changed, and how this change would affect its comment section.
-9. What role do device names play in organizing and managing devices within an organization</t>
-  </si>
-  <si>
-    <t>Describe a situation where it would be necessary to update the "service version" object in the triple, and how doing so might benefit the organization.
-9. Can you think of any scenarios where having a clear audit trail of changes to the "service version" object might be beneficial</t>
-  </si>
-  <si>
-    <t>Describe what happened and your role in ensuring accurate terminology.
-6. Have you participated in a brainstorming session where ideas were being generated quickly, and someone suggested something that wasn't quite accurately labeled</t>
-  </si>
-  <si>
     <t>Did you gently correct them, or let it pass without comment</t>
   </si>
   <si>
-    <t>Discuss potential privacy concerns when sharing information about one's neighborhood on social media platforms.
-8. Consider an individual relocating to a new city; discuss ways they could effectively find a welcoming community within their new neighborhood.
-9. Imagine a scenario where neighbors organize a petition to restrict entrance to their street; what legal considerations should be taken into account</t>
-  </si>
-  <si>
     <t>Do the triples suggest a hierarchical relationship between the subject and object, where the object has some kind of control over the subject's composition</t>
   </si>
   <si>
@@ -2074,6 +2053,25 @@
   </si>
   <si>
     <t>Who is the author/creator of the Vicinity core model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Have you participated in a brainstorming session where ideas were being generated quickly, and someone suggested something that wasn't quite accurately labeled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consider an individual relocating to a new city; what ways they could effectively find a welcoming community within their new neighborhood.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe a situation where it would be necessary to update the "service version" object in the triple, and how doing so might benefit the organization.
+</t>
+  </si>
+  <si>
+    <t>What role do device names play in organizing and managing devices within an organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+How can a device's serial number be used to verify its compatibility with certain software or hardware</t>
   </si>
 </sst>
 </file>
@@ -2438,8 +2436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A681"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A649" workbookViewId="0">
-      <selection activeCell="A682" sqref="A682:A686"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2449,7 +2447,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -4914,942 +4912,942 @@
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>492</v>
+        <v>680</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>493</v>
+        <v>679</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>494</v>
+        <v>678</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>495</v>
+        <v>676</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>497</v>
+        <v>677</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
